--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.530679000000001</v>
+        <v>7.934942333333333</v>
       </c>
       <c r="H2">
-        <v>28.592037</v>
+        <v>23.804827</v>
       </c>
       <c r="I2">
-        <v>0.1897667754944841</v>
+        <v>0.1481951088167925</v>
       </c>
       <c r="J2">
-        <v>0.1975481195422152</v>
+        <v>0.1539507021887745</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N2">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O2">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P2">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q2">
-        <v>275.8078589315151</v>
+        <v>188.8841317021114</v>
       </c>
       <c r="R2">
-        <v>2482.270730383635</v>
+        <v>1699.957185319003</v>
       </c>
       <c r="S2">
-        <v>0.04533847855505779</v>
+        <v>0.03016333001270006</v>
       </c>
       <c r="T2">
-        <v>0.04936852810070549</v>
+        <v>0.03218730137658153</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.530679000000001</v>
+        <v>7.934942333333333</v>
       </c>
       <c r="H3">
-        <v>28.592037</v>
+        <v>23.804827</v>
       </c>
       <c r="I3">
-        <v>0.1897667754944841</v>
+        <v>0.1481951088167925</v>
       </c>
       <c r="J3">
-        <v>0.1975481195422152</v>
+        <v>0.1539507021887745</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>107.117709</v>
       </c>
       <c r="O3">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P3">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q3">
-        <v>340.301499898137</v>
+        <v>283.3242812645937</v>
       </c>
       <c r="R3">
-        <v>3062.713499083233</v>
+        <v>2549.918531381343</v>
       </c>
       <c r="S3">
-        <v>0.05594021981518935</v>
+        <v>0.0452446890026361</v>
       </c>
       <c r="T3">
-        <v>0.06091263760763612</v>
+        <v>0.04828062551463601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.530679000000001</v>
+        <v>7.934942333333333</v>
       </c>
       <c r="H4">
-        <v>28.592037</v>
+        <v>23.804827</v>
       </c>
       <c r="I4">
-        <v>0.1897667754944841</v>
+        <v>0.1481951088167925</v>
       </c>
       <c r="J4">
-        <v>0.1975481195422152</v>
+        <v>0.1539507021887745</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N4">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O4">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P4">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q4">
-        <v>183.791500910442</v>
+        <v>268.1665285775551</v>
       </c>
       <c r="R4">
-        <v>1654.123508193978</v>
+        <v>2413.498757197996</v>
       </c>
       <c r="S4">
-        <v>0.03021243504413359</v>
+        <v>0.04282411352903785</v>
       </c>
       <c r="T4">
-        <v>0.03289795987873213</v>
+        <v>0.0456976284701895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.530679000000001</v>
+        <v>7.934942333333333</v>
       </c>
       <c r="H5">
-        <v>28.592037</v>
+        <v>23.804827</v>
       </c>
       <c r="I5">
-        <v>0.1897667754944841</v>
+        <v>0.1481951088167925</v>
       </c>
       <c r="J5">
-        <v>0.1975481195422152</v>
+        <v>0.1539507021887745</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N5">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O5">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P5">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q5">
-        <v>152.2936694861505</v>
+        <v>73.7353683156055</v>
       </c>
       <c r="R5">
-        <v>913.762016916903</v>
+        <v>442.412209893633</v>
       </c>
       <c r="S5">
-        <v>0.02503468644736259</v>
+        <v>0.01177496610260106</v>
       </c>
       <c r="T5">
-        <v>0.01817331415842281</v>
+        <v>0.008376713987566467</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.530679000000001</v>
+        <v>7.934942333333333</v>
       </c>
       <c r="H6">
-        <v>28.592037</v>
+        <v>23.804827</v>
       </c>
       <c r="I6">
-        <v>0.1897667754944841</v>
+        <v>0.1481951088167925</v>
       </c>
       <c r="J6">
-        <v>0.1975481195422152</v>
+        <v>0.1539507021887745</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N6">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O6">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P6">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q6">
-        <v>202.214919734684</v>
+        <v>113.8941392369037</v>
       </c>
       <c r="R6">
-        <v>1819.934277612156</v>
+        <v>1025.047253132133</v>
       </c>
       <c r="S6">
-        <v>0.03324095563274072</v>
+        <v>0.01818801016981742</v>
       </c>
       <c r="T6">
-        <v>0.0361956797967186</v>
+        <v>0.01940843283980101</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>28.636056</v>
       </c>
       <c r="I7">
-        <v>0.1900589317927741</v>
+        <v>0.1782715511859743</v>
       </c>
       <c r="J7">
-        <v>0.1978522556439602</v>
+        <v>0.1851952517494486</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N7">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O7">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P7">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q7">
-        <v>276.2324801693201</v>
+        <v>227.218478543576</v>
       </c>
       <c r="R7">
-        <v>2486.09232152388</v>
+        <v>2044.966306892184</v>
       </c>
       <c r="S7">
-        <v>0.04540827961496531</v>
+        <v>0.03628502771266347</v>
       </c>
       <c r="T7">
-        <v>0.04944453364163513</v>
+        <v>0.03871976741140215</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>28.636056</v>
       </c>
       <c r="I8">
-        <v>0.1900589317927741</v>
+        <v>0.1782715511859743</v>
       </c>
       <c r="J8">
-        <v>0.1978522556439602</v>
+        <v>0.1851952517494486</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>107.117709</v>
       </c>
       <c r="O8">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P8">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q8">
         <v>340.825412612856</v>
@@ -948,10 +948,10 @@
         <v>3067.428713515704</v>
       </c>
       <c r="S8">
-        <v>0.05602634283384817</v>
+        <v>0.05442717344604402</v>
       </c>
       <c r="T8">
-        <v>0.06100641593461754</v>
+        <v>0.05807925829295655</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>28.636056</v>
       </c>
       <c r="I9">
-        <v>0.1900589317927741</v>
+        <v>0.1782715511859743</v>
       </c>
       <c r="J9">
-        <v>0.1978522556439602</v>
+        <v>0.1851952517494486</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N9">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O9">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P9">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q9">
-        <v>184.074457947696</v>
+        <v>322.5913689552321</v>
       </c>
       <c r="R9">
-        <v>1656.670121529264</v>
+        <v>2903.322320597088</v>
       </c>
       <c r="S9">
-        <v>0.03025894873527801</v>
+        <v>0.05151533817775217</v>
       </c>
       <c r="T9">
-        <v>0.03294860808179308</v>
+        <v>0.05497203772745508</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>28.636056</v>
       </c>
       <c r="I10">
-        <v>0.1900589317927741</v>
+        <v>0.1782715511859743</v>
       </c>
       <c r="J10">
-        <v>0.1978522556439602</v>
+        <v>0.1851952517494486</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N10">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O10">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P10">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q10">
-        <v>152.528133894444</v>
+        <v>88.70008323380401</v>
       </c>
       <c r="R10">
-        <v>915.1688033666641</v>
+        <v>532.2004994028241</v>
       </c>
       <c r="S10">
-        <v>0.0250732287122151</v>
+        <v>0.01416471494256966</v>
       </c>
       <c r="T10">
-        <v>0.01820129296650632</v>
+        <v>0.0100767819419119</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>28.636056</v>
       </c>
       <c r="I11">
-        <v>0.1900589317927741</v>
+        <v>0.1782715511859743</v>
       </c>
       <c r="J11">
-        <v>0.1978522556439602</v>
+        <v>0.1851952517494486</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N11">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O11">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P11">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q11">
-        <v>202.526240629792</v>
+        <v>137.009143114536</v>
       </c>
       <c r="R11">
-        <v>1822.736165668128</v>
+        <v>1233.082288030824</v>
       </c>
       <c r="S11">
-        <v>0.03329213189646749</v>
+        <v>0.02187929690694502</v>
       </c>
       <c r="T11">
-        <v>0.03625140501940811</v>
+        <v>0.02334740637572291</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.79341066666667</v>
+        <v>14.055385</v>
       </c>
       <c r="H12">
-        <v>41.380232</v>
+        <v>42.166155</v>
       </c>
       <c r="I12">
-        <v>0.2746426634749271</v>
+        <v>0.2625021357479615</v>
       </c>
       <c r="J12">
-        <v>0.2859043242641508</v>
+        <v>0.2726971790574536</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N12">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O12">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P12">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q12">
-        <v>399.1668446011511</v>
+        <v>334.5757385420883</v>
       </c>
       <c r="R12">
-        <v>3592.50160141036</v>
+        <v>3011.181646878795</v>
       </c>
       <c r="S12">
-        <v>0.06561675760056256</v>
+        <v>0.05342914899703589</v>
       </c>
       <c r="T12">
-        <v>0.0714493040949028</v>
+        <v>0.05701426600901785</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.79341066666667</v>
+        <v>14.055385</v>
       </c>
       <c r="H13">
-        <v>41.380232</v>
+        <v>42.166155</v>
       </c>
       <c r="I13">
-        <v>0.2746426634749271</v>
+        <v>0.2625021357479615</v>
       </c>
       <c r="J13">
-        <v>0.2859043242641508</v>
+        <v>0.2726971790574536</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>107.117709</v>
       </c>
       <c r="O13">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P13">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q13">
-        <v>492.5061833031653</v>
+        <v>501.860213437655</v>
       </c>
       <c r="R13">
-        <v>4432.555649728488</v>
+        <v>4516.741920938895</v>
       </c>
       <c r="S13">
-        <v>0.08096027834895191</v>
+        <v>0.08014318144013186</v>
       </c>
       <c r="T13">
-        <v>0.08815668068476226</v>
+        <v>0.0855208205859718</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.79341066666667</v>
+        <v>14.055385</v>
       </c>
       <c r="H14">
-        <v>41.380232</v>
+        <v>42.166155</v>
       </c>
       <c r="I14">
-        <v>0.2746426634749271</v>
+        <v>0.2625021357479615</v>
       </c>
       <c r="J14">
-        <v>0.2859043242641508</v>
+        <v>0.2726971790574536</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N14">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O14">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P14">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q14">
-        <v>265.994862391312</v>
+        <v>475.0108627049934</v>
       </c>
       <c r="R14">
-        <v>2393.953761521808</v>
+        <v>4275.097764344941</v>
       </c>
       <c r="S14">
-        <v>0.04372537610423413</v>
+        <v>0.07585554849035479</v>
       </c>
       <c r="T14">
-        <v>0.04761204009733996</v>
+        <v>0.08094548577086587</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.79341066666667</v>
+        <v>14.055385</v>
       </c>
       <c r="H15">
-        <v>41.380232</v>
+        <v>42.166155</v>
       </c>
       <c r="I15">
-        <v>0.2746426634749271</v>
+        <v>0.2625021357479615</v>
       </c>
       <c r="J15">
-        <v>0.2859043242641508</v>
+        <v>0.2726971790574536</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N15">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O15">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P15">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q15">
-        <v>220.409178103268</v>
+        <v>130.6095175309575</v>
       </c>
       <c r="R15">
-        <v>1322.455068619608</v>
+        <v>783.6571051857451</v>
       </c>
       <c r="S15">
-        <v>0.03623180584297368</v>
+        <v>0.02085732636502766</v>
       </c>
       <c r="T15">
-        <v>0.02630158725957233</v>
+        <v>0.01483790747105181</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.79341066666667</v>
+        <v>14.055385</v>
       </c>
       <c r="H16">
-        <v>41.380232</v>
+        <v>42.166155</v>
       </c>
       <c r="I16">
-        <v>0.2746426634749271</v>
+        <v>0.2625021357479615</v>
       </c>
       <c r="J16">
-        <v>0.2859043242641508</v>
+        <v>0.2726971790574536</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N16">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O16">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P16">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q16">
-        <v>292.6584171838684</v>
+        <v>201.743870209805</v>
       </c>
       <c r="R16">
-        <v>2633.925754654816</v>
+        <v>1815.694831888245</v>
       </c>
       <c r="S16">
-        <v>0.04810844557820479</v>
+        <v>0.03221693045541132</v>
       </c>
       <c r="T16">
-        <v>0.05238471212757344</v>
+        <v>0.03437869922054631</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.9348075</v>
+        <v>6.0053675</v>
       </c>
       <c r="H17">
-        <v>11.869615</v>
+        <v>12.010735</v>
       </c>
       <c r="I17">
-        <v>0.1181688400643312</v>
+        <v>0.1121578522894532</v>
       </c>
       <c r="J17">
-        <v>0.0820095512236526</v>
+        <v>0.07767588846805276</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N17">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O17">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P17">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q17">
-        <v>171.7471073934708</v>
+        <v>142.9523464870691</v>
       </c>
       <c r="R17">
-        <v>1030.482644360825</v>
+        <v>857.7140789224148</v>
       </c>
       <c r="S17">
-        <v>0.02823252598971659</v>
+        <v>0.02282838036378633</v>
       </c>
       <c r="T17">
-        <v>0.02049470702881559</v>
+        <v>0.01624011580505315</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.9348075</v>
+        <v>6.0053675</v>
       </c>
       <c r="H18">
-        <v>11.869615</v>
+        <v>12.010735</v>
       </c>
       <c r="I18">
-        <v>0.1181688400643312</v>
+        <v>0.1121578522894532</v>
       </c>
       <c r="J18">
-        <v>0.0820095512236526</v>
+        <v>0.07767588846805276</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>107.117709</v>
       </c>
       <c r="O18">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P18">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q18">
-        <v>211.9076609186725</v>
+        <v>214.4270694343525</v>
       </c>
       <c r="R18">
-        <v>1271.445965512035</v>
+        <v>1286.562416606115</v>
       </c>
       <c r="S18">
-        <v>0.0348342899924375</v>
+        <v>0.03424233894462308</v>
       </c>
       <c r="T18">
-        <v>0.02528709504108301</v>
+        <v>0.02436000894652719</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.9348075</v>
+        <v>6.0053675</v>
       </c>
       <c r="H19">
-        <v>11.869615</v>
+        <v>12.010735</v>
       </c>
       <c r="I19">
-        <v>0.1181688400643312</v>
+        <v>0.1121578522894532</v>
       </c>
       <c r="J19">
-        <v>0.0820095512236526</v>
+        <v>0.07767588846805276</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N19">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O19">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P19">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q19">
-        <v>114.448002921885</v>
+        <v>202.9552941477967</v>
       </c>
       <c r="R19">
-        <v>686.6880175313099</v>
+        <v>1217.73176488678</v>
       </c>
       <c r="S19">
-        <v>0.01881345348984966</v>
+        <v>0.03241038545715046</v>
       </c>
       <c r="T19">
-        <v>0.01365716328801607</v>
+        <v>0.02305675675290149</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.9348075</v>
+        <v>6.0053675</v>
       </c>
       <c r="H20">
-        <v>11.869615</v>
+        <v>12.010735</v>
       </c>
       <c r="I20">
-        <v>0.1181688400643312</v>
+        <v>0.1121578522894532</v>
       </c>
       <c r="J20">
-        <v>0.0820095512236526</v>
+        <v>0.07767588846805276</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N20">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O20">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P20">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q20">
-        <v>94.83412586542124</v>
+        <v>55.80481443739125</v>
       </c>
       <c r="R20">
-        <v>379.336503461685</v>
+        <v>223.219257749565</v>
       </c>
       <c r="S20">
-        <v>0.01558924027217325</v>
+        <v>0.008911595796872888</v>
       </c>
       <c r="T20">
-        <v>0.007544416731642022</v>
+        <v>0.004226474398467762</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.9348075</v>
+        <v>6.0053675</v>
       </c>
       <c r="H21">
-        <v>11.869615</v>
+        <v>12.010735</v>
       </c>
       <c r="I21">
-        <v>0.1181688400643312</v>
+        <v>0.1121578522894532</v>
       </c>
       <c r="J21">
-        <v>0.0820095512236526</v>
+        <v>0.07767588846805276</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N21">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O21">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P21">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q21">
-        <v>125.9203696036033</v>
+        <v>86.1980003736775</v>
       </c>
       <c r="R21">
-        <v>755.5222176216199</v>
+        <v>517.1880022420651</v>
       </c>
       <c r="S21">
-        <v>0.02069933032015419</v>
+        <v>0.01376515172702045</v>
       </c>
       <c r="T21">
-        <v>0.0150261691340959</v>
+        <v>0.009792532565103181</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.418868</v>
+        <v>16.00284133333333</v>
       </c>
       <c r="H22">
-        <v>34.256604</v>
+        <v>48.00852399999999</v>
       </c>
       <c r="I22">
-        <v>0.2273627891734836</v>
+        <v>0.2988733519598186</v>
       </c>
       <c r="J22">
-        <v>0.2366857493260213</v>
+        <v>0.3104809785362705</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N22">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O22">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P22">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q22">
-        <v>330.4500691400467</v>
+        <v>380.933176705715</v>
       </c>
       <c r="R22">
-        <v>2974.05062226042</v>
+        <v>3428.398590351435</v>
       </c>
       <c r="S22">
-        <v>0.0543207993828179</v>
+        <v>0.06083207211859305</v>
       </c>
       <c r="T22">
-        <v>0.0591492700295799</v>
+        <v>0.06491392819753941</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.418868</v>
+        <v>16.00284133333333</v>
       </c>
       <c r="H23">
-        <v>34.256604</v>
+        <v>48.00852399999999</v>
       </c>
       <c r="I23">
-        <v>0.2273627891734836</v>
+        <v>0.2988733519598186</v>
       </c>
       <c r="J23">
-        <v>0.2366857493260213</v>
+        <v>0.3104809785362705</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>107.117709</v>
       </c>
       <c r="O23">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P23">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q23">
-        <v>407.7209931778039</v>
+        <v>571.3959003723907</v>
       </c>
       <c r="R23">
-        <v>3669.488938600235</v>
+        <v>5142.563103351515</v>
       </c>
       <c r="S23">
-        <v>0.06702292522501611</v>
+        <v>0.09124749101749789</v>
       </c>
       <c r="T23">
-        <v>0.07298046323598062</v>
+        <v>0.09737023372421127</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.418868</v>
+        <v>16.00284133333333</v>
       </c>
       <c r="H24">
-        <v>34.256604</v>
+        <v>48.00852399999999</v>
       </c>
       <c r="I24">
-        <v>0.2273627891734836</v>
+        <v>0.2988733519598186</v>
       </c>
       <c r="J24">
-        <v>0.2366857493260213</v>
+        <v>0.3104809785362705</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N24">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O24">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P24">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q24">
-        <v>220.203711447864</v>
+        <v>540.8264140383058</v>
       </c>
       <c r="R24">
-        <v>1981.833403030776</v>
+        <v>4867.437726344751</v>
       </c>
       <c r="S24">
-        <v>0.0361980303530877</v>
+        <v>0.08636578128198698</v>
       </c>
       <c r="T24">
-        <v>0.03941560316159407</v>
+        <v>0.09216095933627982</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.418868</v>
+        <v>16.00284133333333</v>
       </c>
       <c r="H25">
-        <v>34.256604</v>
+        <v>48.00852399999999</v>
       </c>
       <c r="I25">
-        <v>0.2273627891734836</v>
+        <v>0.2988733519598186</v>
       </c>
       <c r="J25">
-        <v>0.2366857493260213</v>
+        <v>0.3104809785362705</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N25">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O25">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P25">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q25">
-        <v>182.465625911646</v>
+        <v>148.706235060166</v>
       </c>
       <c r="R25">
-        <v>1094.793755469876</v>
+        <v>892.2374103609959</v>
       </c>
       <c r="S25">
-        <v>0.02999448202628819</v>
+        <v>0.02374723171631995</v>
       </c>
       <c r="T25">
-        <v>0.02177375562617953</v>
+        <v>0.01689378689932174</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.418868</v>
+        <v>16.00284133333333</v>
       </c>
       <c r="H26">
-        <v>34.256604</v>
+        <v>48.00852399999999</v>
       </c>
       <c r="I26">
-        <v>0.2273627891734836</v>
+        <v>0.2988733519598186</v>
       </c>
       <c r="J26">
-        <v>0.2366857493260213</v>
+        <v>0.3104809785362705</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N26">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O26">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P26">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q26">
-        <v>242.2771217119946</v>
+        <v>229.6966710581107</v>
       </c>
       <c r="R26">
-        <v>2180.494095407952</v>
+        <v>2067.270039522996</v>
       </c>
       <c r="S26">
-        <v>0.03982655218627369</v>
+        <v>0.03668077582542077</v>
       </c>
       <c r="T26">
-        <v>0.04336665727268713</v>
+        <v>0.03914207037891831</v>
       </c>
     </row>
   </sheetData>
